--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher.Main\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher.Main\DNREC_MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping!$A$1:$J$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping!$A$1:$K$102</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1330,7 +1330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,8 +1341,8 @@
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1374,10 +1374,10 @@
         <v>132</v>
       </c>
       <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,11 +1408,11 @@
       <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2">
         <v>1703029.0009999999</v>
-      </c>
-      <c r="K2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1443,11 +1443,11 @@
       <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3">
         <v>1703029.0020000001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1478,11 +1478,11 @@
       <c r="I4" t="s">
         <v>154</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4">
         <v>1703029.003</v>
-      </c>
-      <c r="K4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,11 +1513,11 @@
       <c r="I5" t="s">
         <v>154</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5">
         <v>1703029.004</v>
-      </c>
-      <c r="K5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1548,11 +1548,11 @@
       <c r="I6" t="s">
         <v>154</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6">
         <v>1703029.0049999999</v>
-      </c>
-      <c r="K6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1583,11 +1583,11 @@
       <c r="I7" t="s">
         <v>154</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7">
         <v>1703029.0060000001</v>
-      </c>
-      <c r="K7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1618,11 +1618,11 @@
       <c r="I8" t="s">
         <v>154</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8">
         <v>1703029.007</v>
-      </c>
-      <c r="K8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1653,11 +1653,11 @@
       <c r="I9" t="s">
         <v>154</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9">
         <v>1704019.0009999999</v>
-      </c>
-      <c r="K9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1688,11 +1688,11 @@
       <c r="I10" t="s">
         <v>154</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10">
         <v>1704019.0020000001</v>
-      </c>
-      <c r="K10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1723,11 +1723,11 @@
       <c r="I11" t="s">
         <v>154</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11">
         <v>1704019.003</v>
-      </c>
-      <c r="K11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1758,11 +1758,11 @@
       <c r="I12" t="s">
         <v>154</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12">
         <v>1704019.004</v>
-      </c>
-      <c r="K12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1793,11 +1793,11 @@
       <c r="I13" t="s">
         <v>154</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13">
         <v>1704019.0049999999</v>
-      </c>
-      <c r="K13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1828,11 +1828,11 @@
       <c r="I14" t="s">
         <v>154</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14">
         <v>1704019.0060000001</v>
-      </c>
-      <c r="K14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1863,11 +1863,11 @@
       <c r="I15" t="s">
         <v>154</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15">
         <v>1704019.007</v>
-      </c>
-      <c r="K15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,11 +1898,11 @@
       <c r="I16" t="s">
         <v>154</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16">
         <v>1704019.0079999999</v>
-      </c>
-      <c r="K16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,11 +1933,11 @@
       <c r="I17" t="s">
         <v>154</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17">
         <v>1704019.0090000001</v>
-      </c>
-      <c r="K17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1968,11 +1968,11 @@
       <c r="I18" t="s">
         <v>154</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18">
         <v>1705016.0009999999</v>
-      </c>
-      <c r="K18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2003,11 +2003,11 @@
       <c r="I19" t="s">
         <v>154</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19">
         <v>1705016.0020000001</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2038,11 +2038,11 @@
       <c r="I20" t="s">
         <v>154</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20">
         <v>1705016.003</v>
-      </c>
-      <c r="K20" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,11 +2073,11 @@
       <c r="I21" t="s">
         <v>154</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21">
         <v>1705016.004</v>
-      </c>
-      <c r="K21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2108,11 +2108,11 @@
       <c r="I22" t="s">
         <v>154</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22">
         <v>1705016.0049999999</v>
-      </c>
-      <c r="K22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2143,11 +2143,11 @@
       <c r="I23" t="s">
         <v>154</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23">
         <v>1705016.0060000001</v>
-      </c>
-      <c r="K23" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2178,11 +2178,11 @@
       <c r="I24" t="s">
         <v>154</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24">
         <v>1705016.007</v>
-      </c>
-      <c r="K24" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2213,11 +2213,11 @@
       <c r="I25" t="s">
         <v>154</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25">
         <v>1705016.0079999999</v>
-      </c>
-      <c r="K25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2248,11 +2248,11 @@
       <c r="I26" t="s">
         <v>154</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26">
         <v>1705016.0090000001</v>
-      </c>
-      <c r="K26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2283,11 +2283,11 @@
       <c r="I27" t="s">
         <v>154</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27">
         <v>1706014.0009999999</v>
-      </c>
-      <c r="K27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2318,11 +2318,11 @@
       <c r="I28" t="s">
         <v>154</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28">
         <v>1706014.0020000001</v>
-      </c>
-      <c r="K28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,11 +2353,11 @@
       <c r="I29" t="s">
         <v>154</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29">
         <v>1706014.003</v>
-      </c>
-      <c r="K29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2388,11 +2388,11 @@
       <c r="I30" t="s">
         <v>154</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30">
         <v>1706014.004</v>
-      </c>
-      <c r="K30" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2423,11 +2423,11 @@
       <c r="I31" t="s">
         <v>154</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31">
         <v>1706014.0049999999</v>
-      </c>
-      <c r="K31" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2458,11 +2458,11 @@
       <c r="I32" t="s">
         <v>154</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32">
         <v>1706014.0060000001</v>
-      </c>
-      <c r="K32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2493,11 +2493,11 @@
       <c r="I33" t="s">
         <v>154</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33">
         <v>1706014.007</v>
-      </c>
-      <c r="K33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,11 +2528,11 @@
       <c r="I34" t="s">
         <v>154</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34">
         <v>1706014.0079999999</v>
-      </c>
-      <c r="K34" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2563,11 +2563,11 @@
       <c r="I35" t="s">
         <v>154</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35">
         <v>1706014.0090000001</v>
-      </c>
-      <c r="K35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2598,11 +2598,11 @@
       <c r="I36" t="s">
         <v>154</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36">
         <v>1706031.0009999999</v>
-      </c>
-      <c r="K36" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2633,11 +2633,11 @@
       <c r="I37" t="s">
         <v>154</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37">
         <v>1706031.0020000001</v>
-      </c>
-      <c r="K37" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2668,11 +2668,11 @@
       <c r="I38" t="s">
         <v>154</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38">
         <v>1706031.003</v>
-      </c>
-      <c r="K38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2703,11 +2703,11 @@
       <c r="I39" t="s">
         <v>154</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39">
         <v>1706031.004</v>
-      </c>
-      <c r="K39" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2738,11 +2738,11 @@
       <c r="I40" t="s">
         <v>154</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40">
         <v>1706031.0049999999</v>
-      </c>
-      <c r="K40" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2773,11 +2773,11 @@
       <c r="I41" t="s">
         <v>154</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41">
         <v>1707016.0009999999</v>
-      </c>
-      <c r="K41" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2808,11 +2808,11 @@
       <c r="I42" t="s">
         <v>154</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42">
         <v>1707016.0020000001</v>
-      </c>
-      <c r="K42" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2843,11 +2843,11 @@
       <c r="I43" t="s">
         <v>154</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43">
         <v>1707016.003</v>
-      </c>
-      <c r="K43" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,11 +2878,11 @@
       <c r="I44" t="s">
         <v>154</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44">
         <v>1707016.004</v>
-      </c>
-      <c r="K44" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2913,11 +2913,11 @@
       <c r="I45" t="s">
         <v>154</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>162</v>
+      </c>
+      <c r="K45">
         <v>1707016.0049999999</v>
-      </c>
-      <c r="K45" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2948,11 +2948,11 @@
       <c r="I46" t="s">
         <v>154</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46">
         <v>1707016.0060000001</v>
-      </c>
-      <c r="K46" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,11 +2983,11 @@
       <c r="I47" t="s">
         <v>154</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="s">
+        <v>164</v>
+      </c>
+      <c r="K47">
         <v>1707016.007</v>
-      </c>
-      <c r="K47" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,11 +3018,11 @@
       <c r="I48" t="s">
         <v>154</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48">
         <v>1707016.0079999999</v>
-      </c>
-      <c r="K48" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3053,11 +3053,11 @@
       <c r="I49" t="s">
         <v>154</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
+      <c r="K49">
         <v>1707016.0090000001</v>
-      </c>
-      <c r="K49" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3088,11 +3088,11 @@
       <c r="I50" t="s">
         <v>154</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50">
         <v>1708016.0009999999</v>
-      </c>
-      <c r="K50" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3123,11 +3123,11 @@
       <c r="I51" t="s">
         <v>154</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51">
         <v>1708016.0020000001</v>
-      </c>
-      <c r="K51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3158,11 +3158,11 @@
       <c r="I52" t="s">
         <v>154</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52">
         <v>1708016.003</v>
-      </c>
-      <c r="K52" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3193,11 +3193,11 @@
       <c r="I53" t="s">
         <v>154</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53">
         <v>1708016.004</v>
-      </c>
-      <c r="K53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3228,11 +3228,11 @@
       <c r="I54" t="s">
         <v>154</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54">
         <v>1708016.0049999999</v>
-      </c>
-      <c r="K54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,11 +3263,11 @@
       <c r="I55" t="s">
         <v>154</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55">
         <v>1708016.0060000001</v>
-      </c>
-      <c r="K55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3298,11 +3298,11 @@
       <c r="I56" t="s">
         <v>154</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56">
         <v>1708016.0079999999</v>
-      </c>
-      <c r="K56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3333,11 +3333,11 @@
       <c r="I57" t="s">
         <v>154</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57">
         <v>1708016.0090000001</v>
-      </c>
-      <c r="K57" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3368,11 +3368,11 @@
       <c r="I58" t="s">
         <v>154</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58">
         <v>1709004.0009999999</v>
-      </c>
-      <c r="K58" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3403,11 +3403,11 @@
       <c r="I59" t="s">
         <v>154</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59">
         <v>1709004.0020000001</v>
-      </c>
-      <c r="K59" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3438,11 +3438,11 @@
       <c r="I60" t="s">
         <v>154</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60">
         <v>1709004.003</v>
-      </c>
-      <c r="K60" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3473,11 +3473,11 @@
       <c r="I61" t="s">
         <v>154</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61">
         <v>1709004.004</v>
-      </c>
-      <c r="K61" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3508,11 +3508,11 @@
       <c r="I62" t="s">
         <v>154</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62">
         <v>1709004.0049999999</v>
-      </c>
-      <c r="K62" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,11 +3543,11 @@
       <c r="I63" t="s">
         <v>154</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63">
         <v>1709004.0060000001</v>
-      </c>
-      <c r="K63" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3578,11 +3578,11 @@
       <c r="I64" t="s">
         <v>154</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="s">
+        <v>165</v>
+      </c>
+      <c r="K64">
         <v>1709004.007</v>
-      </c>
-      <c r="K64" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3613,11 +3613,11 @@
       <c r="I65" t="s">
         <v>154</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65">
         <v>1709004.0079999999</v>
-      </c>
-      <c r="K65" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3648,11 +3648,11 @@
       <c r="I66" t="s">
         <v>154</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="s">
+        <v>163</v>
+      </c>
+      <c r="K66">
         <v>1709004.0090000001</v>
-      </c>
-      <c r="K66" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3683,11 +3683,11 @@
       <c r="I67" t="s">
         <v>154</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K67">
         <v>1709044.0009999999</v>
-      </c>
-      <c r="K67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3718,11 +3718,11 @@
       <c r="I68" t="s">
         <v>154</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68">
         <v>1709044.0020000001</v>
-      </c>
-      <c r="K68" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3753,11 +3753,11 @@
       <c r="I69" t="s">
         <v>154</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69">
         <v>1709044.003</v>
-      </c>
-      <c r="K69" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,11 +3788,11 @@
       <c r="I70" t="s">
         <v>154</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70">
         <v>1709044.004</v>
-      </c>
-      <c r="K70" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3823,11 +3823,11 @@
       <c r="I71" t="s">
         <v>154</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="s">
+        <v>162</v>
+      </c>
+      <c r="K71">
         <v>1709044.0049999999</v>
-      </c>
-      <c r="K71" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3858,11 +3858,11 @@
       <c r="I72" t="s">
         <v>154</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
         <v>1709044.0060000001</v>
-      </c>
-      <c r="K72" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3893,11 +3893,11 @@
       <c r="I73" t="s">
         <v>154</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+      <c r="K73">
         <v>1709044.007</v>
-      </c>
-      <c r="K73" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3928,11 +3928,11 @@
       <c r="I74" t="s">
         <v>154</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K74">
         <v>1709044.0079999999</v>
-      </c>
-      <c r="K74" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3963,11 +3963,11 @@
       <c r="I75" t="s">
         <v>154</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="s">
+        <v>163</v>
+      </c>
+      <c r="K75">
         <v>1709044.0090000001</v>
-      </c>
-      <c r="K75" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3998,11 +3998,11 @@
       <c r="I76" t="s">
         <v>154</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76">
         <v>1808004.004</v>
-      </c>
-      <c r="K76" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4033,11 +4033,11 @@
       <c r="I77" t="s">
         <v>142</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77">
         <v>1808013.0009999999</v>
-      </c>
-      <c r="K77" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4068,11 +4068,11 @@
       <c r="I78" t="s">
         <v>142</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="s">
+        <v>147</v>
+      </c>
+      <c r="K78">
         <v>1808013.0020000001</v>
-      </c>
-      <c r="K78" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4103,11 +4103,11 @@
       <c r="I79" t="s">
         <v>153</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79">
         <v>1808016.0009999999</v>
-      </c>
-      <c r="K79" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4138,11 +4138,11 @@
       <c r="I80" t="s">
         <v>152</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="s">
+        <v>149</v>
+      </c>
+      <c r="K80">
         <v>1810020.0009999999</v>
-      </c>
-      <c r="K80" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4173,11 +4173,11 @@
       <c r="I81" t="s">
         <v>152</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K81">
         <v>1810020.0020000001</v>
-      </c>
-      <c r="K81" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4208,11 +4208,11 @@
       <c r="I82" t="s">
         <v>152</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="s">
+        <v>151</v>
+      </c>
+      <c r="K82">
         <v>1810020.003</v>
-      </c>
-      <c r="K82" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4244,10 +4244,10 @@
         <v>134</v>
       </c>
       <c r="J83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83" t="s">
         <v>31</v>
-      </c>
-      <c r="K83" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,10 +4279,10 @@
         <v>135</v>
       </c>
       <c r="J84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K84" t="s">
         <v>124</v>
-      </c>
-      <c r="K84" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,10 +4314,10 @@
         <v>135</v>
       </c>
       <c r="J85" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" t="s">
         <v>123</v>
-      </c>
-      <c r="K85" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,10 +4349,10 @@
         <v>136</v>
       </c>
       <c r="J86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K86" t="s">
         <v>21</v>
-      </c>
-      <c r="K86" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4384,10 +4384,10 @@
         <v>136</v>
       </c>
       <c r="J87" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" t="s">
         <v>67</v>
-      </c>
-      <c r="K87" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>134</v>
       </c>
       <c r="J88" t="s">
+        <v>155</v>
+      </c>
+      <c r="K88" t="s">
         <v>69</v>
-      </c>
-      <c r="K88" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4454,10 +4454,10 @@
         <v>137</v>
       </c>
       <c r="J89" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89" t="s">
         <v>126</v>
-      </c>
-      <c r="K89" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4489,10 +4489,10 @@
         <v>137</v>
       </c>
       <c r="J90" t="s">
+        <v>155</v>
+      </c>
+      <c r="K90" t="s">
         <v>125</v>
-      </c>
-      <c r="K90" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,10 +4524,10 @@
         <v>138</v>
       </c>
       <c r="J91" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91" t="s">
         <v>27</v>
-      </c>
-      <c r="K91" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4559,10 +4559,10 @@
         <v>138</v>
       </c>
       <c r="J92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K92" t="s">
         <v>65</v>
-      </c>
-      <c r="K92" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4594,10 +4594,10 @@
         <v>139</v>
       </c>
       <c r="J93" t="s">
+        <v>155</v>
+      </c>
+      <c r="K93" t="s">
         <v>25</v>
-      </c>
-      <c r="K93" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4629,10 +4629,10 @@
         <v>139</v>
       </c>
       <c r="J94" t="s">
+        <v>155</v>
+      </c>
+      <c r="K94" t="s">
         <v>63</v>
-      </c>
-      <c r="K94" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4664,10 +4664,10 @@
         <v>140</v>
       </c>
       <c r="J95" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" t="s">
         <v>61</v>
-      </c>
-      <c r="K95" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4699,10 +4699,10 @@
         <v>141</v>
       </c>
       <c r="J96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K96" t="s">
         <v>59</v>
-      </c>
-      <c r="K96" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,10 +4734,10 @@
         <v>141</v>
       </c>
       <c r="J97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K97" t="s">
         <v>23</v>
-      </c>
-      <c r="K97" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4769,10 +4769,10 @@
         <v>142</v>
       </c>
       <c r="J98" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" t="s">
         <v>29</v>
-      </c>
-      <c r="K98" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>143</v>
       </c>
       <c r="J99" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" t="s">
         <v>57</v>
-      </c>
-      <c r="K99" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>143</v>
       </c>
       <c r="J100" t="s">
+        <v>155</v>
+      </c>
+      <c r="K100" t="s">
         <v>33</v>
-      </c>
-      <c r="K100" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4874,10 +4874,10 @@
         <v>144</v>
       </c>
       <c r="J101" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" t="s">
         <v>55</v>
-      </c>
-      <c r="K101" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4909,10 +4909,10 @@
         <v>144</v>
       </c>
       <c r="J102" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" t="s">
         <v>35</v>
-      </c>
-      <c r="K102" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping!$A$1:$K$102</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="166">
   <si>
     <t>#SampleID</t>
   </si>
@@ -1328,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="A1:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,4 +4922,3602 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1703029.0009999999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>2017</v>
+      </c>
+      <c r="G2">
+        <v>308411</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2">
+        <v>1703029.0009999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1703029.0020000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>2017</v>
+      </c>
+      <c r="G3">
+        <v>308371</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3">
+        <v>1703029.0020000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1703029.003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>2017</v>
+      </c>
+      <c r="G4">
+        <v>308291</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4">
+        <v>1703029.003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1703029.004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>2017</v>
+      </c>
+      <c r="G5">
+        <v>308015</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5">
+        <v>1703029.004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1703029.0049999999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>2017</v>
+      </c>
+      <c r="G6">
+        <v>308018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6">
+        <v>1703029.0049999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1703029.0060000001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>2017</v>
+      </c>
+      <c r="G7">
+        <v>308021</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7">
+        <v>1703029.0060000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1703029.007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>2017</v>
+      </c>
+      <c r="G8">
+        <v>308024</v>
+      </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8">
+        <v>1703029.007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1704019.0009999999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2017</v>
+      </c>
+      <c r="G9">
+        <v>308411</v>
+      </c>
+      <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9">
+        <v>1704019.0009999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1704019.0020000001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>2017</v>
+      </c>
+      <c r="G10">
+        <v>308371</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10">
+        <v>1704019.0020000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1704019.003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>2017</v>
+      </c>
+      <c r="G11">
+        <v>308291</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11">
+        <v>1704019.003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1704019.004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>2017</v>
+      </c>
+      <c r="G12">
+        <v>308015</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12">
+        <v>1704019.004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1704019.0049999999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2017</v>
+      </c>
+      <c r="G13">
+        <v>308018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>1704019.0049999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1704019.0060000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>2017</v>
+      </c>
+      <c r="G14">
+        <v>308021</v>
+      </c>
+      <c r="H14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14">
+        <v>1704019.0060000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1704019.007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>2017</v>
+      </c>
+      <c r="G15">
+        <v>308024</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15">
+        <v>1704019.007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1704019.0079999999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>2017</v>
+      </c>
+      <c r="G16">
+        <v>308021</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16">
+        <v>1704019.0079999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1704019.0090000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>2017</v>
+      </c>
+      <c r="G17">
+        <v>308021</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17">
+        <v>1704019.0090000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1705016.0009999999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>2017</v>
+      </c>
+      <c r="G18">
+        <v>308411</v>
+      </c>
+      <c r="H18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18">
+        <v>1705016.0009999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1705016.0020000001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>2017</v>
+      </c>
+      <c r="G19">
+        <v>308371</v>
+      </c>
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19">
+        <v>1705016.0020000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1705016.003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>2017</v>
+      </c>
+      <c r="G20">
+        <v>308291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20">
+        <v>1705016.003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1705016.004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>2017</v>
+      </c>
+      <c r="G21">
+        <v>308015</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21">
+        <v>1705016.004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1705016.0049999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>2017</v>
+      </c>
+      <c r="G22">
+        <v>308018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>1705016.0049999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1705016.0060000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>2017</v>
+      </c>
+      <c r="G23">
+        <v>308021</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23">
+        <v>1705016.0060000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1705016.007</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>2017</v>
+      </c>
+      <c r="G24">
+        <v>308024</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24">
+        <v>1705016.007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1705016.0079999999</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>2017</v>
+      </c>
+      <c r="G25">
+        <v>308021</v>
+      </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25">
+        <v>1705016.0079999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1705016.0090000001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>2017</v>
+      </c>
+      <c r="G26">
+        <v>308021</v>
+      </c>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26">
+        <v>1705016.0090000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1706014.0009999999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>2017</v>
+      </c>
+      <c r="G27">
+        <v>308411</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27">
+        <v>1706014.0009999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1706014.0020000001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>2017</v>
+      </c>
+      <c r="G28">
+        <v>308371</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28">
+        <v>1706014.0020000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1706014.003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>2017</v>
+      </c>
+      <c r="G29">
+        <v>308291</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29">
+        <v>1706014.003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1706014.004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>2017</v>
+      </c>
+      <c r="G30">
+        <v>308015</v>
+      </c>
+      <c r="H30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30">
+        <v>1706014.004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1706014.0049999999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2017</v>
+      </c>
+      <c r="G31">
+        <v>308018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31">
+        <v>1706014.0049999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1706014.0060000001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>2017</v>
+      </c>
+      <c r="G32">
+        <v>308021</v>
+      </c>
+      <c r="H32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32">
+        <v>1706014.0060000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1706014.007</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>2017</v>
+      </c>
+      <c r="G33">
+        <v>308024</v>
+      </c>
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33">
+        <v>1706014.007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1706014.0079999999</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>2017</v>
+      </c>
+      <c r="G34">
+        <v>308021</v>
+      </c>
+      <c r="H34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34">
+        <v>1706014.0079999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1706014.0090000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>2017</v>
+      </c>
+      <c r="G35">
+        <v>308021</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35">
+        <v>1706014.0090000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1706031.0009999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>2017</v>
+      </c>
+      <c r="G36">
+        <v>308015</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36">
+        <v>1706031.0009999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1706031.0020000001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>2017</v>
+      </c>
+      <c r="G37">
+        <v>308018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37">
+        <v>1706031.0020000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1706031.003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>2017</v>
+      </c>
+      <c r="G38">
+        <v>308021</v>
+      </c>
+      <c r="H38" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38">
+        <v>1706031.003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1706031.004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>2017</v>
+      </c>
+      <c r="G39">
+        <v>308024</v>
+      </c>
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39">
+        <v>1706031.004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1706031.0049999999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>2017</v>
+      </c>
+      <c r="G40">
+        <v>308021</v>
+      </c>
+      <c r="H40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40">
+        <v>1706031.0049999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1707016.0009999999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>2017</v>
+      </c>
+      <c r="G41">
+        <v>308411</v>
+      </c>
+      <c r="H41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41">
+        <v>1707016.0009999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1707016.0020000001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2017</v>
+      </c>
+      <c r="G42">
+        <v>308371</v>
+      </c>
+      <c r="H42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42">
+        <v>1707016.0020000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1707016.003</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>2017</v>
+      </c>
+      <c r="G43">
+        <v>308291</v>
+      </c>
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43">
+        <v>1707016.003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1707016.004</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>2017</v>
+      </c>
+      <c r="G44">
+        <v>308015</v>
+      </c>
+      <c r="H44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44">
+        <v>1707016.004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1707016.0049999999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>2017</v>
+      </c>
+      <c r="G45">
+        <v>308018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" t="s">
+        <v>162</v>
+      </c>
+      <c r="K45">
+        <v>1707016.0049999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1707016.0060000001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>2017</v>
+      </c>
+      <c r="G46">
+        <v>308021</v>
+      </c>
+      <c r="H46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46">
+        <v>1707016.0060000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1707016.007</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>2017</v>
+      </c>
+      <c r="G47">
+        <v>308024</v>
+      </c>
+      <c r="H47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" t="s">
+        <v>164</v>
+      </c>
+      <c r="K47">
+        <v>1707016.007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1707016.0079999999</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>2017</v>
+      </c>
+      <c r="G48">
+        <v>308021</v>
+      </c>
+      <c r="H48" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48">
+        <v>1707016.0079999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1707016.0090000001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>2017</v>
+      </c>
+      <c r="G49">
+        <v>308021</v>
+      </c>
+      <c r="H49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
+      <c r="K49">
+        <v>1707016.0090000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1708016.0009999999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>2017</v>
+      </c>
+      <c r="G50">
+        <v>308411</v>
+      </c>
+      <c r="H50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50">
+        <v>1708016.0009999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1708016.0020000001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>2017</v>
+      </c>
+      <c r="G51">
+        <v>308371</v>
+      </c>
+      <c r="H51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+      <c r="K51">
+        <v>1708016.0020000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1708016.003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>2017</v>
+      </c>
+      <c r="G52">
+        <v>308291</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52">
+        <v>1708016.003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1708016.004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>2017</v>
+      </c>
+      <c r="G53">
+        <v>308015</v>
+      </c>
+      <c r="H53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53">
+        <v>1708016.004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1708016.0049999999</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>2017</v>
+      </c>
+      <c r="G54">
+        <v>308018</v>
+      </c>
+      <c r="H54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" t="s">
+        <v>162</v>
+      </c>
+      <c r="K54">
+        <v>1708016.0049999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1708016.0060000001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>2017</v>
+      </c>
+      <c r="G55">
+        <v>308021</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55">
+        <v>1708016.0060000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1708016.0079999999</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>2017</v>
+      </c>
+      <c r="G56">
+        <v>308021</v>
+      </c>
+      <c r="H56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56">
+        <v>1708016.0079999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1708016.0090000001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>2017</v>
+      </c>
+      <c r="G57">
+        <v>308021</v>
+      </c>
+      <c r="H57" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" t="s">
+        <v>154</v>
+      </c>
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57">
+        <v>1708016.0090000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1709004.0009999999</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>2017</v>
+      </c>
+      <c r="G58">
+        <v>308411</v>
+      </c>
+      <c r="H58" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58">
+        <v>1709004.0009999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1709004.0020000001</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>2017</v>
+      </c>
+      <c r="G59">
+        <v>308371</v>
+      </c>
+      <c r="H59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59">
+        <v>1709004.0020000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1709004.003</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2017</v>
+      </c>
+      <c r="G60">
+        <v>308291</v>
+      </c>
+      <c r="H60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K60">
+        <v>1709004.003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1709004.004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>2017</v>
+      </c>
+      <c r="G61">
+        <v>308015</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61">
+        <v>1709004.004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1709004.0049999999</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>2017</v>
+      </c>
+      <c r="G62">
+        <v>308018</v>
+      </c>
+      <c r="H62" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62">
+        <v>1709004.0049999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1709004.0060000001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>2017</v>
+      </c>
+      <c r="G63">
+        <v>308021</v>
+      </c>
+      <c r="H63" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63">
+        <v>1709004.0060000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1709004.007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>2017</v>
+      </c>
+      <c r="G64">
+        <v>308024</v>
+      </c>
+      <c r="H64" t="s">
+        <v>156</v>
+      </c>
+      <c r="I64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" t="s">
+        <v>165</v>
+      </c>
+      <c r="K64">
+        <v>1709004.007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1709004.0079999999</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>2017</v>
+      </c>
+      <c r="G65">
+        <v>308021</v>
+      </c>
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65">
+        <v>1709004.0079999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1709004.0090000001</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>2017</v>
+      </c>
+      <c r="G66">
+        <v>308021</v>
+      </c>
+      <c r="H66" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+      <c r="J66" t="s">
+        <v>163</v>
+      </c>
+      <c r="K66">
+        <v>1709004.0090000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1709044.0009999999</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2017</v>
+      </c>
+      <c r="G67">
+        <v>308411</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K67">
+        <v>1709044.0009999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1709044.0020000001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2017</v>
+      </c>
+      <c r="G68">
+        <v>308371</v>
+      </c>
+      <c r="H68" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68">
+        <v>1709044.0020000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1709044.003</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>2017</v>
+      </c>
+      <c r="G69">
+        <v>308291</v>
+      </c>
+      <c r="H69" t="s">
+        <v>156</v>
+      </c>
+      <c r="I69" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69">
+        <v>1709044.003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1709044.004</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2017</v>
+      </c>
+      <c r="G70">
+        <v>308015</v>
+      </c>
+      <c r="H70" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70">
+        <v>1709044.004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1709044.0049999999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2017</v>
+      </c>
+      <c r="G71">
+        <v>308018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I71" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" t="s">
+        <v>162</v>
+      </c>
+      <c r="K71">
+        <v>1709044.0049999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1709044.0060000001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2017</v>
+      </c>
+      <c r="G72">
+        <v>308021</v>
+      </c>
+      <c r="H72" t="s">
+        <v>156</v>
+      </c>
+      <c r="I72" t="s">
+        <v>154</v>
+      </c>
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
+        <v>1709044.0060000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1709044.007</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2017</v>
+      </c>
+      <c r="G73">
+        <v>308024</v>
+      </c>
+      <c r="H73" t="s">
+        <v>156</v>
+      </c>
+      <c r="I73" t="s">
+        <v>154</v>
+      </c>
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+      <c r="K73">
+        <v>1709044.007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1709044.0079999999</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>2017</v>
+      </c>
+      <c r="G74">
+        <v>308021</v>
+      </c>
+      <c r="H74" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K74">
+        <v>1709044.0079999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1709044.0090000001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>2017</v>
+      </c>
+      <c r="G75">
+        <v>308021</v>
+      </c>
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J75" t="s">
+        <v>163</v>
+      </c>
+      <c r="K75">
+        <v>1709044.0090000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1808004.004</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>2018</v>
+      </c>
+      <c r="G76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I76" t="s">
+        <v>154</v>
+      </c>
+      <c r="J76" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76">
+        <v>1808004.004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1808013.0009999999</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>2018</v>
+      </c>
+      <c r="G77" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77">
+        <v>1808013.0009999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1808013.0020000001</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>2018</v>
+      </c>
+      <c r="G78" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78" t="s">
+        <v>147</v>
+      </c>
+      <c r="K78">
+        <v>1808013.0020000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1808016.0009999999</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>2018</v>
+      </c>
+      <c r="G79" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" t="s">
+        <v>156</v>
+      </c>
+      <c r="I79" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79">
+        <v>1808016.0009999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1810020.0009999999</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>2018</v>
+      </c>
+      <c r="G80" t="s">
+        <v>155</v>
+      </c>
+      <c r="H80" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" t="s">
+        <v>152</v>
+      </c>
+      <c r="J80" t="s">
+        <v>149</v>
+      </c>
+      <c r="K80">
+        <v>1810020.0009999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1810020.0020000001</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>2018</v>
+      </c>
+      <c r="G81" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I81" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K81">
+        <v>1810020.0020000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1810020.003</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>2018</v>
+      </c>
+      <c r="G82" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" t="s">
+        <v>156</v>
+      </c>
+      <c r="I82" t="s">
+        <v>152</v>
+      </c>
+      <c r="J82" t="s">
+        <v>151</v>
+      </c>
+      <c r="K82">
+        <v>1810020.003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>133</v>
+      </c>
+      <c r="I83" t="s">
+        <v>134</v>
+      </c>
+      <c r="J83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" t="s">
+        <v>133</v>
+      </c>
+      <c r="I84" t="s">
+        <v>135</v>
+      </c>
+      <c r="J84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" t="s">
+        <v>133</v>
+      </c>
+      <c r="I85" t="s">
+        <v>135</v>
+      </c>
+      <c r="J85" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>133</v>
+      </c>
+      <c r="I86" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" t="s">
+        <v>133</v>
+      </c>
+      <c r="I88" t="s">
+        <v>134</v>
+      </c>
+      <c r="J88" t="s">
+        <v>155</v>
+      </c>
+      <c r="K88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H90" t="s">
+        <v>133</v>
+      </c>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" t="s">
+        <v>155</v>
+      </c>
+      <c r="K90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" t="s">
+        <v>133</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+      <c r="J91" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" t="s">
+        <v>155</v>
+      </c>
+      <c r="H92" t="s">
+        <v>133</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+      <c r="F93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" t="s">
+        <v>155</v>
+      </c>
+      <c r="H93" t="s">
+        <v>133</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+      <c r="J93" t="s">
+        <v>155</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" t="s">
+        <v>155</v>
+      </c>
+      <c r="H94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+      <c r="J94" t="s">
+        <v>155</v>
+      </c>
+      <c r="K94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" t="s">
+        <v>133</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+      <c r="J95" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" t="s">
+        <v>155</v>
+      </c>
+      <c r="F96" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" t="s">
+        <v>155</v>
+      </c>
+      <c r="H96" t="s">
+        <v>133</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+      <c r="J96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97" t="s">
+        <v>133</v>
+      </c>
+      <c r="I97" t="s">
+        <v>141</v>
+      </c>
+      <c r="J97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+      <c r="F98" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" t="s">
+        <v>133</v>
+      </c>
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" t="s">
+        <v>155</v>
+      </c>
+      <c r="H99" t="s">
+        <v>133</v>
+      </c>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
+      <c r="J99" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H100" t="s">
+        <v>133</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+      <c r="J100" t="s">
+        <v>155</v>
+      </c>
+      <c r="K100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" t="s">
+        <v>155</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" t="s">
+        <v>155</v>
+      </c>
+      <c r="H101" t="s">
+        <v>133</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+      <c r="J101" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" t="s">
+        <v>133</v>
+      </c>
+      <c r="I102" t="s">
+        <v>144</v>
+      </c>
+      <c r="J102" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>